--- a/data/trans_bre/P16B03-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16B03-Edad-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B03-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16B03-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,12</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,88</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-24,25</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,12%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,36%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,25%</t>
         </is>
       </c>
     </row>
@@ -642,27 +642,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-40,68; -4,99</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 75,0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,68; -4,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 300,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>25,73</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>27,94</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>55,96</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,34%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>176,37%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,19; 71,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,88; 71,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,3; 87,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,18; 416,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,03; 364,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,76; —</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>32,85</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>53,34</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>70,88</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,84%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>120,85%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>275,01%</t>
         </is>
       </c>
     </row>
@@ -802,27 +802,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,97; 65,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,74; 97,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,19; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,39; 293,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,4; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,1</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,19</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,17</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,51%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,54; 53,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,62; 61,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,59; 50,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,86; 170,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,82; 165,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,24; 128,48</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,97</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,77</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,59%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,55%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,49; 26,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,6; 96,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,3; 51,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,67; 34,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,61; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,31; 105,53</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,2</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,12</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,55</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,72%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,12%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,75%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,11; 31,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,32; -1,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,07; 12,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,09; 48,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,32; -1,3</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,38; 14,33</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,98</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,68</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,01</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,0%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,07%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,32%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,7; 24,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,41; 29,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,76; 29,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,07; 37,69</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,79; 46,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,19; 48,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B03-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16B03-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -914,7 +914,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>12,2</t>
+          <t>5,55</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-4,12</t>
+          <t>-7,02</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-3,55</t>
+          <t>-6,92</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14,72%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-4,12%</t>
+          <t>-7,02%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-3,75%</t>
+          <t>-7,98%</t>
         </is>
       </c>
     </row>
@@ -1042,39 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 31,55</t>
+          <t>-10,63; 34,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,32; -1,3</t>
+          <t>-21,39; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-15,07; 12,19</t>
+          <t>-30,38; 34,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 48,96</t>
+          <t>-10,68; 54,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-11,32; -1,3</t>
+          <t>-21,39; 0,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-15,38; 14,33</t>
+          <t>-31,43; 54,39</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>12,98</t>
+          <t>19,53</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>13,68</t>
+          <t>-2,39</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13,01</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17,0%</t>
+          <t>24,27%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>17,07%</t>
+          <t>-2,39%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>17,32%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1122,124 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>5,33; 47,34</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-9,77; 0,0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>5,62; 89,37</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-9,77; 0,0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>12,98</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>13,68</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>13,01</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>17,0%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>17,07%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>17,32%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>2,7; 24,92</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>2,41; 29,73</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>0,76; 29,21</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>3,07; 37,69</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>2,79; 46,47</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>1,19; 48,51</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1169,6 +1249,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P16B03-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16B03-Edad-trans_bre.xlsx
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-40,68; -4,99</t>
+          <t>-40,73; -5,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 75,0</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-40,68; -4,99</t>
+          <t>-40,73; -5,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 300,0</t>
+          <t>0,0; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 71,83</t>
+          <t>-7,11; 67,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 71,54</t>
+          <t>-9,48; 72,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,3; 87,6</t>
+          <t>6,0; 87,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 416,71</t>
+          <t>-7,25; 262,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 364,01</t>
+          <t>-11,45; 358,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,76; —</t>
+          <t>6,6; —</t>
         </is>
       </c>
     </row>
@@ -802,27 +802,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 65,13</t>
+          <t>-2,31; 64,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,74; 97,48</t>
+          <t>11,35; 97,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,19; 100,0</t>
+          <t>4,99; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 293,38</t>
+          <t>-3,84; 289,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,4; —</t>
+          <t>11,84; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-28,54; 53,15</t>
+          <t>-24,52; 59,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,62; 61,48</t>
+          <t>-18,55; 60,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-33,59; 50,17</t>
+          <t>-35,28; 43,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-29,86; 170,76</t>
+          <t>-27,37; 283,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,82; 165,79</t>
+          <t>-19,26; 156,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-34,24; 128,48</t>
+          <t>-36,19; 100,96</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,49; 26,3</t>
+          <t>-11,52; 28,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,6; 96,23</t>
+          <t>-15,19; 96,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,3; 51,29</t>
+          <t>-11,33; 51,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,67; 34,9</t>
+          <t>-11,76; 41,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,61; —</t>
+          <t>-15,2; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,31; 105,53</t>
+          <t>-11,34; 105,8</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-10,63; 34,36</t>
+          <t>-10,52; 29,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-21,39; 0,0</t>
+          <t>-23,26; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-30,38; 34,24</t>
+          <t>-30,32; 31,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 54,46</t>
+          <t>-10,69; 46,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-21,39; 0,0</t>
+          <t>-23,26; 0,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-31,43; 54,39</t>
+          <t>-30,96; 53,0</t>
         </is>
       </c>
     </row>
@@ -1122,12 +1122,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,33; 47,34</t>
+          <t>5,01; 45,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 0,0</t>
+          <t>-12,09; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,62; 89,37</t>
+          <t>5,24; 82,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 0,0</t>
+          <t>-12,09; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,7; 24,92</t>
+          <t>2,82; 25,67</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,41; 29,73</t>
+          <t>2,27; 31,46</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,76; 29,21</t>
+          <t>0,56; 28,7</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,07; 37,69</t>
+          <t>3,25; 40,41</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,79; 46,47</t>
+          <t>2,49; 50,62</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,19; 48,51</t>
+          <t>0,65; 48,03</t>
         </is>
       </c>
     </row>
